--- a/main.xlsx
+++ b/main.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Scotiabank</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>3661 MAJOR MACKENZIE DRIVE WEST 18226</t>
   </si>
@@ -138,18 +135,18 @@
     </font>
     <font>
       <b/>
-      <sz val="36"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,52 +220,52 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,282 +558,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="55.5" x14ac:dyDescent="1.05">
-      <c r="A2" s="5" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="72.75" x14ac:dyDescent="1.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="14" t="s">
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="B21:C21"/>
@@ -847,14 +850,6 @@
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +128,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,10 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,43 +220,50 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,181 +546,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="72.75" x14ac:dyDescent="1.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -734,122 +732,115 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="14">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,50 +220,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,138 +559,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -711,11 +714,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -732,86 +735,92 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
@@ -827,20 +836,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,44 +227,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -547,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,141 +553,131 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -709,23 +694,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -735,35 +719,32 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -781,46 +762,44 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="E18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
@@ -836,20 +815,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
